--- a/template Checklist.xlsx
+++ b/template Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathe\Desktop\Faculdade\4 semestre\Qualidade de software\Projeto Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaow\PycharmProjects\Projeto_Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E44E7C1-63DE-4A7F-80D9-80C6A8491224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD4A832-E2B7-4F26-AD61-0CD1DCD8F9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PRIORIDADE</t>
   </si>
   <si>
-    <t>Os produtos de trabalho contém atividades, recursos e responsabilidades do projeto?</t>
-  </si>
-  <si>
     <t>Matheus</t>
   </si>
   <si>
@@ -54,23 +51,68 @@
     <t>João</t>
   </si>
   <si>
-    <t>No cronograma de marco de projeto existe uma data final definida?</t>
-  </si>
-  <si>
-    <t>O Plano de Projeto contém um gráfico mostrando a alocação de tempo de todas as fases do projeto?</t>
-  </si>
-  <si>
     <t>Arthur</t>
   </si>
   <si>
     <t>Alta - Complexa | 3 dias</t>
+  </si>
+  <si>
+    <t>É possível identificar os requisitos funcionais?</t>
+  </si>
+  <si>
+    <t>É possível identificar os requisitos não-funcionais?</t>
+  </si>
+  <si>
+    <t>Todos os requisitos estão especificados de maneira clara e possibilita que o desenvolvedor o implemente?</t>
+  </si>
+  <si>
+    <t>Todos os requisitos estão descritos sem ambiguidade?</t>
+  </si>
+  <si>
+    <t>Todos os requisitos estão descritos de maneira única (não conflitantes)?</t>
+  </si>
+  <si>
+    <t>Todos os requisitos descritos são verificáveis (teste)?</t>
+  </si>
+  <si>
+    <t>Todos os requsitos apresentam em sua sintaxe, sujeito, ação, objeto e qualificação??</t>
+  </si>
+  <si>
+    <t>Todos os requisitos especificados são realmente necessários (sem requisitos desnecessários)?</t>
+  </si>
+  <si>
+    <t>Os requsitos definem todas as informações a serem apresentadas aos usuários?</t>
+  </si>
+  <si>
+    <t>As restrições foram claramente descritas?</t>
+  </si>
+  <si>
+    <t>As dependências foram claramente descritas?</t>
+  </si>
+  <si>
+    <t>Os requistos são consistentes entre si?</t>
+  </si>
+  <si>
+    <t>Os requisitos são priorizados?</t>
+  </si>
+  <si>
+    <t>Todos os requisitos possui um identificador claro? (Ex: ID)</t>
+  </si>
+  <si>
+    <t>Média - Simples | 3 dias</t>
+  </si>
+  <si>
+    <t>Alta - Simples | 2 dias</t>
+  </si>
+  <si>
+    <t>Média - Complexa | 4 dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,20 +129,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,20 +150,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE085"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7575"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF73"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,13 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5B999AF-ED46-4655-85C4-1EE0F2C08043}" name="Tabela1" displayName="Tabela1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D4" xr:uid="{B5B999AF-ED46-4655-85C4-1EE0F2C08043}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5B999AF-ED46-4655-85C4-1EE0F2C08043}" name="Tabela1" displayName="Tabela1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D15" xr:uid="{B5B999AF-ED46-4655-85C4-1EE0F2C08043}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7E00E173-9F84-4A67-BBCB-ACB0AA17BCC6}" name="ID"/>
     <tableColumn id="2" xr3:uid="{11BBBB9E-A11F-4867-8323-1E475E631892}" name="DESCRICAO"/>
@@ -482,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,13 +571,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,50 +599,168 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
